--- a/output/robot_cari_only_cari_relevant.xlsx
+++ b/output/robot_cari_only_cari_relevant.xlsx
@@ -516,7 +516,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -632,7 +632,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -678,7 +678,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -794,7 +794,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -875,7 +875,7 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -956,7 +956,7 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -1037,7 +1037,7 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1245,7 +1245,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1326,7 +1326,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -1407,7 +1407,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -1523,7 +1523,7 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1604,7 +1604,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1685,7 +1685,7 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -1766,7 +1766,7 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
@@ -1847,7 +1847,7 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
@@ -1974,7 +1974,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
@@ -2090,7 +2090,7 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -2136,7 +2136,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -2171,7 +2171,7 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -2217,7 +2217,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -2252,7 +2252,7 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
@@ -2379,7 +2379,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -2414,7 +2414,7 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J25" t="inlineStr">
@@ -2460,7 +2460,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -2576,7 +2576,7 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
@@ -2622,7 +2622,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -2657,7 +2657,7 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
@@ -2738,7 +2738,7 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
@@ -2784,7 +2784,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -2865,7 +2865,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
@@ -2981,7 +2981,7 @@
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J32" t="inlineStr">
@@ -3027,7 +3027,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
@@ -3062,7 +3062,7 @@
       </c>
       <c r="I33" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J33" t="inlineStr">
@@ -3108,7 +3108,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
@@ -3189,7 +3189,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
@@ -3224,7 +3224,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -3270,7 +3270,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
@@ -3305,7 +3305,7 @@
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
@@ -3386,7 +3386,7 @@
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
@@ -3432,7 +3432,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -3467,7 +3467,7 @@
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
@@ -3513,7 +3513,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -3548,7 +3548,7 @@
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
@@ -3629,7 +3629,7 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
@@ -3756,7 +3756,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
@@ -3837,7 +3837,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
@@ -3918,7 +3918,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
@@ -4080,7 +4080,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -4161,7 +4161,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -4242,7 +4242,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -4323,7 +4323,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -4404,7 +4404,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -4485,7 +4485,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -4566,7 +4566,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -4647,7 +4647,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
@@ -4728,7 +4728,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
@@ -4809,7 +4809,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
@@ -4890,7 +4890,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
@@ -4971,7 +4971,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
@@ -5052,7 +5052,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
@@ -5133,7 +5133,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
@@ -5214,7 +5214,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
@@ -5295,7 +5295,7 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
@@ -5376,7 +5376,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
@@ -5538,7 +5538,7 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
@@ -5619,7 +5619,7 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
@@ -5700,7 +5700,7 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
@@ -5781,7 +5781,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
@@ -5862,7 +5862,7 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
@@ -5943,7 +5943,7 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
@@ -6024,7 +6024,7 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
@@ -6221,7 +6221,7 @@
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
@@ -6302,7 +6302,7 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
@@ -6383,7 +6383,7 @@
       </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J74" t="inlineStr">
@@ -6464,7 +6464,7 @@
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
@@ -7031,7 +7031,7 @@
       </c>
       <c r="I82" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J82" t="inlineStr">
@@ -7112,7 +7112,7 @@
       </c>
       <c r="I83" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
@@ -7193,7 +7193,7 @@
       </c>
       <c r="I84" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
@@ -7274,7 +7274,7 @@
       </c>
       <c r="I85" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J85" t="inlineStr">
@@ -7355,7 +7355,7 @@
       </c>
       <c r="I86" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
@@ -7436,7 +7436,7 @@
       </c>
       <c r="I87" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J87" t="inlineStr">
@@ -7806,7 +7806,7 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C92" t="inlineStr">
@@ -7887,7 +7887,7 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C93" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="I93" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
@@ -8084,7 +8084,7 @@
       </c>
       <c r="I95" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
@@ -8130,7 +8130,7 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C96" t="inlineStr">
@@ -8246,7 +8246,7 @@
       </c>
       <c r="I97" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J97" t="inlineStr">
@@ -8327,7 +8327,7 @@
       </c>
       <c r="I98" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
@@ -8373,7 +8373,7 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C99" t="inlineStr">
@@ -8408,7 +8408,7 @@
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
@@ -8894,7 +8894,7 @@
       </c>
       <c r="I105" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J105" t="inlineStr">
@@ -8975,7 +8975,7 @@
       </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J106" t="inlineStr">
@@ -9056,7 +9056,7 @@
       </c>
       <c r="I107" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J107" t="inlineStr">
@@ -9137,7 +9137,7 @@
       </c>
       <c r="I108" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
@@ -9669,7 +9669,7 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
@@ -9750,7 +9750,7 @@
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
@@ -9831,7 +9831,7 @@
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
@@ -9866,7 +9866,7 @@
       </c>
       <c r="I117" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
@@ -9993,7 +9993,7 @@
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
@@ -10028,7 +10028,7 @@
       </c>
       <c r="I119" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J119" t="inlineStr">
@@ -10155,7 +10155,7 @@
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
@@ -10190,7 +10190,7 @@
       </c>
       <c r="I121" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
@@ -10352,7 +10352,7 @@
       </c>
       <c r="I123" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
@@ -10398,7 +10398,7 @@
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
@@ -10433,7 +10433,7 @@
       </c>
       <c r="I124" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J124" t="inlineStr">
@@ -10514,7 +10514,7 @@
       </c>
       <c r="I125" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J125" t="inlineStr">
@@ -10641,7 +10641,7 @@
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
@@ -10722,7 +10722,7 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
@@ -10838,7 +10838,7 @@
       </c>
       <c r="I129" t="inlineStr">
         <is>
-          <t>DP_CGJ</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J129" t="inlineStr">
@@ -10919,7 +10919,7 @@
       </c>
       <c r="I130" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGJ</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
@@ -11000,7 +11000,7 @@
       </c>
       <c r="I131" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
@@ -11081,7 +11081,7 @@
       </c>
       <c r="I132" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J132" t="inlineStr">
@@ -11162,7 +11162,7 @@
       </c>
       <c r="I133" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
@@ -11243,7 +11243,7 @@
       </c>
       <c r="I134" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
@@ -11405,7 +11405,7 @@
       </c>
       <c r="I136" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
@@ -11486,7 +11486,7 @@
       </c>
       <c r="I137" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J137" t="inlineStr">
@@ -11567,7 +11567,7 @@
       </c>
       <c r="I138" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J138" t="inlineStr">
@@ -11648,7 +11648,7 @@
       </c>
       <c r="I139" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
@@ -11729,7 +11729,7 @@
       </c>
       <c r="I140" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J140" t="inlineStr">
@@ -11856,7 +11856,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
@@ -12018,7 +12018,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -12099,7 +12099,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -12180,7 +12180,7 @@
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
@@ -12261,7 +12261,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -12342,7 +12342,7 @@
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
@@ -12423,7 +12423,7 @@
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
@@ -12504,7 +12504,7 @@
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
@@ -12666,7 +12666,7 @@
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
@@ -12747,7 +12747,7 @@
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez20</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
@@ -12828,7 +12828,7 @@
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
@@ -12909,7 +12909,7 @@
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez20</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
@@ -12990,7 +12990,7 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
@@ -13071,7 +13071,7 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
@@ -13152,7 +13152,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez13</t>
+          <t>AL-ZUL-FZZSpez8</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -13233,7 +13233,7 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez10</t>
+          <t>AL-ZUL-FZZSpez1</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
@@ -13314,7 +13314,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez4</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -13395,7 +13395,7 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez7</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
@@ -13476,7 +13476,7 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez1</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
@@ -13557,7 +13557,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez9</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -13638,7 +13638,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez3</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -13719,7 +13719,7 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez2</t>
+          <t>AL-ZUL-FZZSpez13</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
@@ -13881,7 +13881,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez8</t>
+          <t>AL-ZUL-FZZSpez12</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -13962,7 +13962,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez9</t>
+          <t>AL-ZUL-FZZSpez11</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -14124,7 +14124,7 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez7</t>
+          <t>AL-ZUL-FZZSpez10</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
@@ -14205,7 +14205,7 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez12</t>
+          <t>AL-ZUL-FZZSpez2</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
@@ -14286,7 +14286,7 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez11</t>
+          <t>AL-ZUL-FZZSpez3</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
@@ -14367,7 +14367,7 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez4</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
@@ -14448,7 +14448,7 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
@@ -14483,7 +14483,7 @@
       </c>
       <c r="I174" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J174" t="inlineStr">
@@ -14529,7 +14529,7 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
@@ -14564,7 +14564,7 @@
       </c>
       <c r="I175" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
@@ -14645,7 +14645,7 @@
       </c>
       <c r="I176" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J176" t="inlineStr">
@@ -14691,7 +14691,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -14726,7 +14726,7 @@
       </c>
       <c r="I177" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J177" t="inlineStr">
@@ -14772,7 +14772,7 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
@@ -14888,7 +14888,7 @@
       </c>
       <c r="I179" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J179" t="inlineStr">
@@ -14969,7 +14969,7 @@
       </c>
       <c r="I180" t="inlineStr">
         <is>
-          <t>DP_CGR</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J180" t="inlineStr">
@@ -15050,7 +15050,7 @@
       </c>
       <c r="I181" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
@@ -15096,7 +15096,7 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
@@ -15131,7 +15131,7 @@
       </c>
       <c r="I182" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
@@ -15212,7 +15212,7 @@
       </c>
       <c r="I183" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J183" t="inlineStr">
@@ -15293,7 +15293,7 @@
       </c>
       <c r="I184" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGR</t>
         </is>
       </c>
       <c r="J184" t="inlineStr">
@@ -15339,7 +15339,7 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
@@ -15374,7 +15374,7 @@
       </c>
       <c r="I185" t="inlineStr">
         <is>
-          <t>DP_CGN</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J185" t="inlineStr">
@@ -15455,7 +15455,7 @@
       </c>
       <c r="I186" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J186" t="inlineStr">
@@ -15536,7 +15536,7 @@
       </c>
       <c r="I187" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGN</t>
         </is>
       </c>
       <c r="J187" t="inlineStr">
@@ -15582,7 +15582,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez5</t>
+          <t>AL-ZUL-FZZSpez6</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -15663,7 +15663,7 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez6</t>
+          <t>AL-ZUL-FZZSpez5</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
@@ -15779,7 +15779,7 @@
       </c>
       <c r="I190" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
@@ -15860,7 +15860,7 @@
       </c>
       <c r="I191" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGAV</t>
         </is>
       </c>
       <c r="J191" t="inlineStr">
@@ -15941,7 +15941,7 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
@@ -16022,7 +16022,7 @@
       </c>
       <c r="I193" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
@@ -16103,7 +16103,7 @@
       </c>
       <c r="I194" t="inlineStr">
         <is>
-          <t>DP_CGAR</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="I195" t="inlineStr">
         <is>
-          <t>DP_CGC</t>
+          <t>DP_CGAR</t>
         </is>
       </c>
       <c r="J195" t="inlineStr">
@@ -16230,7 +16230,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -16265,7 +16265,7 @@
       </c>
       <c r="I196" t="inlineStr">
         <is>
-          <t>FA030</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J196" t="inlineStr">
@@ -16311,7 +16311,7 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
@@ -16346,7 +16346,7 @@
       </c>
       <c r="I197" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>FA030</t>
         </is>
       </c>
       <c r="J197" t="inlineStr">
@@ -16392,7 +16392,7 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
@@ -16427,7 +16427,7 @@
       </c>
       <c r="I198" t="inlineStr">
         <is>
-          <t>DP_CY</t>
+          <t>DP_CGC</t>
         </is>
       </c>
       <c r="J198" t="inlineStr">
@@ -16508,7 +16508,7 @@
       </c>
       <c r="I199" t="inlineStr">
         <is>
-          <t>DP_CGAV</t>
+          <t>DP_CY</t>
         </is>
       </c>
       <c r="J199" t="inlineStr">
@@ -16554,7 +16554,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez15</t>
+          <t>AL-ZUL-FZZSpez14</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -16635,7 +16635,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>AL-ZUL-FZZSpez14</t>
+          <t>AL-ZUL-FZZSpez15</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -16716,7 +16716,7 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 2</t>
+          <t>AL-ZUL-PEZ 4</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
@@ -16797,7 +16797,7 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 4</t>
+          <t>AL-ZUL-PEZ 1</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
@@ -16878,7 +16878,7 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 3</t>
+          <t>AL-ZUL-PEZ 5</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
@@ -16959,7 +16959,7 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 7</t>
+          <t>AL-ZUL-PEZ 3</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
@@ -17040,7 +17040,7 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 5</t>
+          <t>AL-ZUL-PEZ 2</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
@@ -17121,7 +17121,7 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 6</t>
+          <t>AL-ZUL-PEZ 7</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
@@ -17202,7 +17202,7 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 1</t>
+          <t>AL-ZUL-PEZ 6</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
@@ -17283,7 +17283,7 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 7</t>
+          <t>AL-ZUL-PEZ 1</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
@@ -17364,7 +17364,7 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 1</t>
+          <t>AL-ZUL-PEZ 6</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
@@ -17526,7 +17526,7 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 6</t>
+          <t>AL-ZUL-PEZ 5</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
@@ -17688,7 +17688,7 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 5</t>
+          <t>AL-ZUL-PEZ 4</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
@@ -17769,7 +17769,7 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>AL-ZUL-PEZ 4</t>
+          <t>AL-ZUL-PEZ 7</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
@@ -17909,12 +17909,7 @@
       </c>
       <c r="O216" t="inlineStr">
         <is>
-          <t>Brother HL-L6250DN</t>
-        </is>
-      </c>
-      <c r="P216" t="inlineStr">
-        <is>
-          <t>Brother HL-6250DN series</t>
+          <t>Unkown</t>
         </is>
       </c>
       <c r="Q216" t="n">
